--- a/Trainings/Z2_High_Cadence/intervals.xlsx
+++ b/Trainings/Z2_High_Cadence/intervals.xlsx
@@ -519,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.98</v>
+        <v>0.2498</v>
       </c>
       <c r="G2" t="n">
-        <v>74.979997</v>
+        <v>0.74979997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -544,12 +544,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Warm up</t>
+          <t>Z1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ramp</t>
+          <t>ramp_up</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>68.180001</v>
+        <v>0.68180001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -650,12 +650,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Cooling down</t>
+          <t>Z1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>ramp</t>
+          <t>ramp_down</t>
         </is>
       </c>
     </row>
